--- a/Data/LeadsExport.xlsx
+++ b/Data/LeadsExport.xlsx
@@ -1685,10 +1685,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y2" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1789,10 +1789,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y3" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1893,10 +1893,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y4" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1997,10 +1997,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y5" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -2101,10 +2101,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y6" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2209,10 +2209,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y7" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2315,10 +2315,10 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y8" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>61</v>
@@ -2421,10 +2421,10 @@
         <v>44090.26538194444583</v>
       </c>
       <c r="X9" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y9" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>61</v>
@@ -2525,10 +2525,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y10" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2629,10 +2629,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y11" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2733,10 +2733,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y12" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2835,10 +2835,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y13" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2941,10 +2941,10 @@
         <v>44284.38123842592904</v>
       </c>
       <c r="X14" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y14" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>61</v>
@@ -3045,10 +3045,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y15" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3149,10 +3149,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y16" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3253,10 +3253,10 @@
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y17" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>61</v>
@@ -3359,10 +3359,10 @@
         <v>44089.37105324074219</v>
       </c>
       <c r="X18" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y18" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3465,10 +3465,10 @@
         <v>44435.29143518518686</v>
       </c>
       <c r="X19" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y19" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>61</v>
@@ -3567,10 +3567,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y20" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3671,10 +3671,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Y21" s="5">
-        <v>46065.91682870370278</v>
+        <v>46066.33349537036702</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>61</v>

--- a/Data/LeadsExport.xlsx
+++ b/Data/LeadsExport.xlsx
@@ -1685,10 +1685,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y2" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1789,10 +1789,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y3" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1893,10 +1893,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y4" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1997,10 +1997,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y5" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -2101,10 +2101,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y6" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2209,10 +2209,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y7" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2315,10 +2315,10 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y8" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>61</v>
@@ -2421,10 +2421,10 @@
         <v>44090.26538194444583</v>
       </c>
       <c r="X9" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y9" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>61</v>
@@ -2525,10 +2525,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y10" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2629,10 +2629,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y11" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2733,10 +2733,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y12" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2835,10 +2835,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y13" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2941,10 +2941,10 @@
         <v>44284.38123842592904</v>
       </c>
       <c r="X14" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y14" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>61</v>
@@ -3045,10 +3045,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y15" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3149,10 +3149,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y16" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3253,10 +3253,10 @@
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y17" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>61</v>
@@ -3359,10 +3359,10 @@
         <v>44089.37105324074219</v>
       </c>
       <c r="X18" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y18" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3465,10 +3465,10 @@
         <v>44435.29143518518686</v>
       </c>
       <c r="X19" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y19" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>61</v>
@@ -3567,10 +3567,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y20" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3671,10 +3671,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Y21" s="5">
-        <v>46066.33349537036702</v>
+        <v>46066.50015046296176</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>61</v>

--- a/Data/LeadsExport.xlsx
+++ b/Data/LeadsExport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>ID</t>
   </si>
@@ -149,68 +149,6 @@
   </si>
   <si>
     <t>Stream Updated At</t>
-  </si>
-  <si>
-    <t>5f61b9b6dc8a12c55</t>
-  </si>
-  <si>
-    <t>Andrew Peterson</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Peterson</t>
-  </si>
-  <si>
-    <t>Ophthalmologist</t>
-  </si>
-  <si>
-    <t>In Process</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>www.magik-grey.demo.us</t>
-  </si>
-  <si>
-    <t>2441 Duffy Street
-Los Angeles IN 46347
-United States</t>
-  </si>
-  <si>
-    <t>2441 Duffy Street</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>IN 46347</t>
-  </si>
-  <si>
-    <t>andrew.peterson@example.com</t>
-  </si>
-  <si>
-    <t>+12197664114</t>
-  </si>
-  <si>
-    <t>Jack Adams</t>
-  </si>
-  <si>
-    <t>Magik Grey</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>5f61b8dce14ef6b45</t>
@@ -266,10 +204,16 @@
     <t>+13285250667</t>
   </si>
   <si>
+    <t>Jack Adams</t>
+  </si>
+  <si>
     <t>Builders Square</t>
   </si>
   <si>
     <t>Adam Powers</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
   <si>
     <t>5f61b7e5df5371a6e</t>
@@ -390,6 +334,9 @@
     <t>Sales Manager</t>
   </si>
   <si>
+    <t>In Process</t>
+  </si>
+  <si>
     <t>Partner</t>
   </si>
   <si>
@@ -463,6 +410,9 @@
     <t>New York</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>IL 60126</t>
   </si>
   <si>
@@ -575,6 +525,9 @@
     <t>CarpoTown</t>
   </si>
   <si>
+    <t>AFP Supply</t>
+  </si>
+  <si>
     <t>5f608a5661c4a934b</t>
   </si>
   <si>
@@ -588,6 +541,9 @@
   </si>
   <si>
     <t>Clothes Designer</t>
+  </si>
+  <si>
+    <t>Call</t>
   </si>
   <si>
     <t>Creative</t>
@@ -751,6 +707,9 @@
     <t>Gertruda Wysocka</t>
   </si>
   <si>
+    <t>Dr.</t>
+  </si>
+  <si>
     <t>Gertruda</t>
   </si>
   <si>
@@ -758,6 +717,9 @@
   </si>
   <si>
     <t>Pediatrician</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
   <si>
     <t>www.fisher-saving-lives.com</t>
@@ -1015,6 +977,9 @@
   </si>
   <si>
     <t>4628 Wescam Court</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
   <si>
     <t>NV 89501</t>
@@ -1437,11 +1402,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L22"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1476,7 +1441,7 @@
     <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="20.281" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="17.71" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.71" bestFit="true" customWidth="true" style="0"/>
@@ -1685,10 +1650,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y2" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1700,7 +1665,7 @@
         <v>62</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
@@ -1714,7 +1679,7 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN2" s="4" t="b">
         <v>0</v>
@@ -1732,13 +1697,13 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>67</v>
@@ -1753,35 +1718,35 @@
         <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -1789,10 +1754,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y3" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1801,10 +1766,10 @@
         <v>61</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -1818,7 +1783,7 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN3" s="4" t="b">
         <v>0</v>
@@ -1836,56 +1801,56 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -1893,10 +1858,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y4" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1905,7 +1870,7 @@
         <v>61</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>61</v>
@@ -1922,7 +1887,7 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN4" s="4" t="b">
         <v>0</v>
@@ -1940,56 +1905,56 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -1997,10 +1962,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y5" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -2009,10 +1974,10 @@
         <v>61</v>
       </c>
       <c r="AB5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -2026,7 +1991,7 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN5" s="4" t="b">
         <v>0</v>
@@ -2050,7 +2015,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>118</v>
@@ -2058,17 +2023,21 @@
       <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>122</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3000.0</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>123</v>
@@ -2101,10 +2070,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y6" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2116,9 +2085,11 @@
         <v>131</v>
       </c>
       <c r="AC6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -2130,7 +2101,7 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN6" s="4" t="b">
         <v>0</v>
@@ -2154,7 +2125,7 @@
         <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>135</v>
@@ -2162,46 +2133,42 @@
       <c r="E7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3000.0</v>
+        <v>140</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -2209,10 +2176,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y7" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2221,14 +2188,12 @@
         <v>61</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -2240,7 +2205,7 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN7" s="4" t="b">
         <v>0</v>
@@ -2264,7 +2229,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>151</v>
@@ -2279,61 +2244,65 @@
         <v>154</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="N8" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5">
+        <v>44090.26538194444583</v>
+      </c>
+      <c r="X8" s="5">
+        <v>46066.58349537036702</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>46066.6428587962946</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5">
-        <v>46066.50015046296176</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>46066.50015046296176</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AC8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -2344,7 +2313,7 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN8" s="4" t="b">
         <v>0</v>
@@ -2368,7 +2337,7 @@
         <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>167</v>
@@ -2380,63 +2349,61 @@
         <v>169</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5">
+        <v>46066.58349537036702</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>46066.58349537036702</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="U9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="5">
-        <v>44090.26538194444583</v>
-      </c>
-      <c r="X9" s="5">
-        <v>46066.50015046296176</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>46066.50015046296176</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="AC9" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
@@ -2450,7 +2417,7 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN9" s="4" t="b">
         <v>0</v>
@@ -2468,56 +2435,56 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -2525,10 +2492,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y10" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2537,10 +2504,10 @@
         <v>61</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -2554,7 +2521,7 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN10" s="4" t="b">
         <v>0</v>
@@ -2572,47 +2539,47 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>202</v>
@@ -2629,10 +2596,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y11" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2644,7 +2611,7 @@
         <v>205</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -2658,7 +2625,7 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN11" s="4" t="b">
         <v>0</v>
@@ -2681,9 +2648,7 @@
       <c r="B12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>208</v>
       </c>
@@ -2694,10 +2659,10 @@
         <v>210</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>211</v>
@@ -2716,7 +2681,7 @@
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>216</v>
@@ -2733,10 +2698,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y12" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2748,7 +2713,7 @@
         <v>219</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -2762,7 +2727,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN12" s="4" t="b">
         <v>0</v>
@@ -2785,40 +2750,42 @@
       <c r="B13" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>230</v>
@@ -2833,12 +2800,14 @@
         <v>0</v>
       </c>
       <c r="V13" s="4"/>
-      <c r="W13" s="5"/>
+      <c r="W13" s="5">
+        <v>44284.38123842592904</v>
+      </c>
       <c r="X13" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y13" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2850,7 +2819,7 @@
         <v>233</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
@@ -2864,7 +2833,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN13" s="4" t="b">
         <v>0</v>
@@ -2888,7 +2857,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>236</v>
@@ -2900,51 +2869,49 @@
         <v>238</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V14" s="4"/>
-      <c r="W14" s="5">
-        <v>44284.38123842592904</v>
-      </c>
+      <c r="W14" s="5"/>
       <c r="X14" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y14" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>61</v>
@@ -2953,7 +2920,7 @@
         <v>61</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>61</v>
@@ -2970,7 +2937,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN14" s="4" t="b">
         <v>0</v>
@@ -2988,56 +2955,56 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="U15" s="4" t="b">
         <v>0</v>
@@ -3045,10 +3012,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y15" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3057,7 +3024,7 @@
         <v>61</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>61</v>
@@ -3074,10 +3041,10 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="4" t="b">
         <v>0</v>
@@ -3092,31 +3059,31 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>265</v>
@@ -3132,7 +3099,7 @@
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>269</v>
@@ -3149,10 +3116,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y16" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3178,10 +3145,10 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN16" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="4" t="b">
         <v>0</v>
@@ -3202,61 +3169,63 @@
         <v>274</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V17" s="4"/>
-      <c r="W17" s="5"/>
+      <c r="W17" s="5">
+        <v>44089.37105324074219</v>
+      </c>
       <c r="X17" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y17" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>61</v>
@@ -3265,10 +3234,10 @@
         <v>61</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
@@ -3282,7 +3251,7 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN17" s="4" t="b">
         <v>0</v>
@@ -3300,13 +3269,13 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>288</v>
@@ -3318,51 +3287,51 @@
         <v>290</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="5">
-        <v>44089.37105324074219</v>
+        <v>44435.29143518518686</v>
       </c>
       <c r="X18" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y18" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3371,10 +3340,10 @@
         <v>61</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -3388,7 +3357,7 @@
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN18" s="4" t="b">
         <v>0</v>
@@ -3400,75 +3369,71 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="5"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="U19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V19" s="4"/>
-      <c r="W19" s="5">
-        <v>44435.29143518518686</v>
-      </c>
+      <c r="W19" s="5"/>
       <c r="X19" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y19" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>61</v>
@@ -3477,7 +3442,7 @@
         <v>61</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>61</v>
@@ -3494,7 +3459,7 @@
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN19" s="4" t="b">
         <v>0</v>
@@ -3503,63 +3468,65 @@
         <v>0</v>
       </c>
       <c r="AP19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="5"/>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -3567,10 +3534,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Y20" s="5">
-        <v>46066.50015046296176</v>
+        <v>46066.58349537036702</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3579,10 +3546,10 @@
         <v>61</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -3596,7 +3563,7 @@
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN20" s="4" t="b">
         <v>0</v>
@@ -3605,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="4" t="b">
         <v>0</v>
@@ -3613,234 +3580,126 @@
       <c r="AR20" s="5"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="U21" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="5">
-        <v>46066.50015046296176</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>46066.50015046296176</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
       <c r="AR21" s="5"/>
-    </row>
-    <row r="22" spans="1:44">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AR1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId_hyperlink_1" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b9b6dc8a12c55" display="https://demo.us.espocrm.com/#Lead/view/5f61b9b6dc8a12c55"/>
-    <hyperlink ref="L2" r:id="rId_hyperlink_2" tooltip="https://www.magik-grey.demo.us" display="https://www.magik-grey.demo.us"/>
-    <hyperlink ref="S2" r:id="rId_hyperlink_3" tooltip="mailto:andrew.peterson@example.com" display="mailto:andrew.peterson@example.com"/>
-    <hyperlink ref="T2" r:id="rId_hyperlink_4" tooltip="tel:+12197664114" display="tel:+12197664114"/>
-    <hyperlink ref="B3" r:id="rId_hyperlink_5" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45" display="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45"/>
-    <hyperlink ref="L3" r:id="rId_hyperlink_6" tooltip="https://www.bilders-square.eu" display="https://www.bilders-square.eu"/>
-    <hyperlink ref="S3" r:id="rId_hyperlink_7" tooltip="mailto:antonio.ricci@example.com" display="mailto:antonio.ricci@example.com"/>
-    <hyperlink ref="T3" r:id="rId_hyperlink_8" tooltip="tel:+13285250667" display="tel:+13285250667"/>
-    <hyperlink ref="B4" r:id="rId_hyperlink_9" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e" display="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e"/>
-    <hyperlink ref="L4" r:id="rId_hyperlink_10" tooltip="https://www.scottsdale-source.kat.fr" display="https://www.scottsdale-source.kat.fr"/>
-    <hyperlink ref="S4" r:id="rId_hyperlink_11" tooltip="mailto:charles.patry@demo.com" display="mailto:charles.patry@demo.com"/>
-    <hyperlink ref="T4" r:id="rId_hyperlink_12" tooltip="tel:+12393953979" display="tel:+12393953979"/>
-    <hyperlink ref="B5" r:id="rId_hyperlink_13" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3" display="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3"/>
-    <hyperlink ref="L5" r:id="rId_hyperlink_14" tooltip="https://www.sunflower.de.info" display="https://www.sunflower.de.info"/>
-    <hyperlink ref="S5" r:id="rId_hyperlink_15" tooltip="mailto:ninathomson@example.com" display="mailto:ninathomson@example.com"/>
-    <hyperlink ref="T5" r:id="rId_hyperlink_16" tooltip="tel:+10794476017" display="tel:+10794476017"/>
-    <hyperlink ref="B6" r:id="rId_hyperlink_17" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2" display="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2"/>
-    <hyperlink ref="L6" r:id="rId_hyperlink_18" tooltip="https://www.waltersmarket.co.eu" display="https://www.waltersmarket.co.eu"/>
-    <hyperlink ref="S6" r:id="rId_hyperlink_19" tooltip="mailto:amadei.nowak@example.com" display="mailto:amadei.nowak@example.com"/>
-    <hyperlink ref="T6" r:id="rId_hyperlink_20" tooltip="tel:+18891707045" display="tel:+18891707045"/>
-    <hyperlink ref="B7" r:id="rId_hyperlink_21" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c" display="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c"/>
-    <hyperlink ref="L7" r:id="rId_hyperlink_22" tooltip="https://www.terra.dot.net" display="https://www.terra.dot.net"/>
-    <hyperlink ref="S7" r:id="rId_hyperlink_23" tooltip="mailto:george.barrios@demo.com" display="mailto:george.barrios@demo.com"/>
-    <hyperlink ref="T7" r:id="rId_hyperlink_24" tooltip="tel:+16330617624" display="tel:+16330617624"/>
-    <hyperlink ref="B8" r:id="rId_hyperlink_25" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530" display="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530"/>
-    <hyperlink ref="S8" r:id="rId_hyperlink_26" tooltip="mailto:timothy.harris@example.com" display="mailto:timothy.harris@example.com"/>
-    <hyperlink ref="T8" r:id="rId_hyperlink_27" tooltip="tel:+16609528448" display="tel:+16609528448"/>
-    <hyperlink ref="B9" r:id="rId_hyperlink_28" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa" display="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa"/>
-    <hyperlink ref="S9" r:id="rId_hyperlink_29" tooltip="mailto:felix.hirsch@demo.com" display="mailto:felix.hirsch@demo.com"/>
-    <hyperlink ref="T9" r:id="rId_hyperlink_30" tooltip="tel:+10402485076" display="tel:+10402485076"/>
-    <hyperlink ref="B10" r:id="rId_hyperlink_31" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b" display="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b"/>
-    <hyperlink ref="L10" r:id="rId_hyperlink_32" tooltip="https://www.BuyGaloshes.it" display="https://www.BuyGaloshes.it"/>
-    <hyperlink ref="S10" r:id="rId_hyperlink_33" tooltip="mailto:mira.bruno@demo.com" display="mailto:mira.bruno@demo.com"/>
-    <hyperlink ref="T10" r:id="rId_hyperlink_34" tooltip="tel:+13100696080" display="tel:+13100696080"/>
-    <hyperlink ref="B11" r:id="rId_hyperlink_35" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db" display="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db"/>
-    <hyperlink ref="L11" r:id="rId_hyperlink_36" tooltip="https://www.northernstar.it" display="https://www.northernstar.it"/>
-    <hyperlink ref="S11" r:id="rId_hyperlink_37" tooltip="mailto:basiliorizzo@mail.com" display="mailto:basiliorizzo@mail.com"/>
-    <hyperlink ref="T11" r:id="rId_hyperlink_38" tooltip="tel:+13887302786" display="tel:+13887302786"/>
-    <hyperlink ref="B12" r:id="rId_hyperlink_39" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257" display="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257"/>
-    <hyperlink ref="L12" r:id="rId_hyperlink_40" tooltip="https://www.monsource.co.net" display="https://www.monsource.co.net"/>
-    <hyperlink ref="S12" r:id="rId_hyperlink_41" tooltip="mailto:alex.schmidt@example.com" display="mailto:alex.schmidt@example.com"/>
-    <hyperlink ref="T12" r:id="rId_hyperlink_42" tooltip="tel:+12841986001" display="tel:+12841986001"/>
-    <hyperlink ref="B13" r:id="rId_hyperlink_43" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8" display="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8"/>
-    <hyperlink ref="L13" r:id="rId_hyperlink_44" tooltip="https://www.fresh-start.de" display="https://www.fresh-start.de"/>
-    <hyperlink ref="S13" r:id="rId_hyperlink_45" tooltip="mailto:nadine.fried@demo.com" display="mailto:nadine.fried@demo.com"/>
-    <hyperlink ref="T13" r:id="rId_hyperlink_46" tooltip="tel:+16725124757" display="tel:+16725124757"/>
-    <hyperlink ref="B14" r:id="rId_hyperlink_47" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a" display="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a"/>
-    <hyperlink ref="L14" r:id="rId_hyperlink_48" tooltip="https://www.fisher-saving-lives.com" display="https://www.fisher-saving-lives.com"/>
-    <hyperlink ref="S14" r:id="rId_hyperlink_49" tooltip="mailto:gertruda.wysocka@example.com" display="mailto:gertruda.wysocka@example.com"/>
-    <hyperlink ref="T14" r:id="rId_hyperlink_50" tooltip="tel:+48947629804" display="tel:+48947629804"/>
-    <hyperlink ref="B15" r:id="rId_hyperlink_51" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14" display="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14"/>
-    <hyperlink ref="L15" r:id="rId_hyperlink_52" tooltip="https://www.gex.kat.pl" display="https://www.gex.kat.pl"/>
-    <hyperlink ref="S15" r:id="rId_hyperlink_53" tooltip="mailto:karolinaolszewska@spy.com" display="mailto:karolinaolszewska@spy.com"/>
-    <hyperlink ref="T15" r:id="rId_hyperlink_54" tooltip="tel:+16044315151" display="tel:+16044315151"/>
-    <hyperlink ref="B16" r:id="rId_hyperlink_55" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7" display="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7"/>
-    <hyperlink ref="L16" r:id="rId_hyperlink_56" tooltip="https://www.just4fun-demo.uk" display="https://www.just4fun-demo.uk"/>
-    <hyperlink ref="S16" r:id="rId_hyperlink_57" tooltip="mailto:taylor-whittaker@mail.com" display="mailto:taylor-whittaker@mail.com"/>
-    <hyperlink ref="T16" r:id="rId_hyperlink_58" tooltip="tel:+17033846866" display="tel:+17033846866"/>
-    <hyperlink ref="B17" r:id="rId_hyperlink_59" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037" display="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037"/>
-    <hyperlink ref="L17" r:id="rId_hyperlink_60" tooltip="https://www.integra-wealth.co.uk" display="https://www.integra-wealth.co.uk"/>
-    <hyperlink ref="S17" r:id="rId_hyperlink_61" tooltip="mailto:owen.moore@demo.com" display="mailto:owen.moore@demo.com"/>
-    <hyperlink ref="T17" r:id="rId_hyperlink_62" tooltip="tel:+17855860252" display="tel:+17855860252"/>
-    <hyperlink ref="B18" r:id="rId_hyperlink_63" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e" display="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e"/>
-    <hyperlink ref="L18" r:id="rId_hyperlink_64" tooltip="https://www.pizza-place.com" display="https://www.pizza-place.com"/>
-    <hyperlink ref="S18" r:id="rId_hyperlink_65" tooltip="mailto:mariettesimard@example.com" display="mailto:mariettesimard@example.com"/>
-    <hyperlink ref="T18" r:id="rId_hyperlink_66" tooltip="tel:+14375854286" display="tel:+14375854286"/>
-    <hyperlink ref="B19" r:id="rId_hyperlink_67" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213" display="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213"/>
-    <hyperlink ref="L19" r:id="rId_hyperlink_68" tooltip="https://www.ol-sports.com" display="https://www.ol-sports.com"/>
-    <hyperlink ref="S19" r:id="rId_hyperlink_69" tooltip="mailto:christabelrochon@example.com" display="mailto:christabelrochon@example.com"/>
-    <hyperlink ref="T19" r:id="rId_hyperlink_70" tooltip="tel:+12039543493" display="tel:+12039543493"/>
-    <hyperlink ref="B20" r:id="rId_hyperlink_71" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae" display="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae"/>
-    <hyperlink ref="L20" r:id="rId_hyperlink_72" tooltip="https://www.hughes-hatcher.us" display="https://www.hughes-hatcher.us"/>
-    <hyperlink ref="S20" r:id="rId_hyperlink_73" tooltip="mailto:oscar.sstephens@example.com" display="mailto:oscar.sstephens@example.com"/>
-    <hyperlink ref="T20" r:id="rId_hyperlink_74" tooltip="tel:+17758984313" display="tel:+17758984313"/>
-    <hyperlink ref="B21" r:id="rId_hyperlink_75" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e" display="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e"/>
-    <hyperlink ref="L21" r:id="rId_hyperlink_76" tooltip="https://www.westonsclothes.com" display="https://www.westonsclothes.com"/>
-    <hyperlink ref="S21" r:id="rId_hyperlink_77" tooltip="mailto:stephanie.asher@demo.com" display="mailto:stephanie.asher@demo.com"/>
-    <hyperlink ref="T21" r:id="rId_hyperlink_78" tooltip="tel:+18327783858" display="tel:+18327783858"/>
+    <hyperlink ref="B2" r:id="rId_hyperlink_1" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45" display="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45"/>
+    <hyperlink ref="L2" r:id="rId_hyperlink_2" tooltip="https://www.bilders-square.eu" display="https://www.bilders-square.eu"/>
+    <hyperlink ref="S2" r:id="rId_hyperlink_3" tooltip="mailto:antonio.ricci@example.com" display="mailto:antonio.ricci@example.com"/>
+    <hyperlink ref="T2" r:id="rId_hyperlink_4" tooltip="tel:+13285250667" display="tel:+13285250667"/>
+    <hyperlink ref="B3" r:id="rId_hyperlink_5" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e" display="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e"/>
+    <hyperlink ref="L3" r:id="rId_hyperlink_6" tooltip="https://www.scottsdale-source.kat.fr" display="https://www.scottsdale-source.kat.fr"/>
+    <hyperlink ref="S3" r:id="rId_hyperlink_7" tooltip="mailto:charles.patry@demo.com" display="mailto:charles.patry@demo.com"/>
+    <hyperlink ref="T3" r:id="rId_hyperlink_8" tooltip="tel:+12393953979" display="tel:+12393953979"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_9" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3" display="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3"/>
+    <hyperlink ref="L4" r:id="rId_hyperlink_10" tooltip="https://www.sunflower.de.info" display="https://www.sunflower.de.info"/>
+    <hyperlink ref="S4" r:id="rId_hyperlink_11" tooltip="mailto:ninathomson@example.com" display="mailto:ninathomson@example.com"/>
+    <hyperlink ref="T4" r:id="rId_hyperlink_12" tooltip="tel:+10794476017" display="tel:+10794476017"/>
+    <hyperlink ref="B5" r:id="rId_hyperlink_13" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2" display="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2"/>
+    <hyperlink ref="L5" r:id="rId_hyperlink_14" tooltip="https://www.waltersmarket.co.eu" display="https://www.waltersmarket.co.eu"/>
+    <hyperlink ref="S5" r:id="rId_hyperlink_15" tooltip="mailto:amadei.nowak@example.com" display="mailto:amadei.nowak@example.com"/>
+    <hyperlink ref="T5" r:id="rId_hyperlink_16" tooltip="tel:+18891707045" display="tel:+18891707045"/>
+    <hyperlink ref="B6" r:id="rId_hyperlink_17" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c" display="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c"/>
+    <hyperlink ref="L6" r:id="rId_hyperlink_18" tooltip="https://www.terra.dot.net" display="https://www.terra.dot.net"/>
+    <hyperlink ref="S6" r:id="rId_hyperlink_19" tooltip="mailto:george.barrios@demo.com" display="mailto:george.barrios@demo.com"/>
+    <hyperlink ref="T6" r:id="rId_hyperlink_20" tooltip="tel:+16330617624" display="tel:+16330617624"/>
+    <hyperlink ref="B7" r:id="rId_hyperlink_21" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530" display="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530"/>
+    <hyperlink ref="S7" r:id="rId_hyperlink_22" tooltip="mailto:timothy.harris@example.com" display="mailto:timothy.harris@example.com"/>
+    <hyperlink ref="T7" r:id="rId_hyperlink_23" tooltip="tel:+16609528448" display="tel:+16609528448"/>
+    <hyperlink ref="B8" r:id="rId_hyperlink_24" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa" display="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa"/>
+    <hyperlink ref="S8" r:id="rId_hyperlink_25" tooltip="mailto:felix.hirsch@demo.com" display="mailto:felix.hirsch@demo.com"/>
+    <hyperlink ref="T8" r:id="rId_hyperlink_26" tooltip="tel:+10402485076" display="tel:+10402485076"/>
+    <hyperlink ref="B9" r:id="rId_hyperlink_27" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b" display="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b"/>
+    <hyperlink ref="L9" r:id="rId_hyperlink_28" tooltip="https://www.BuyGaloshes.it" display="https://www.BuyGaloshes.it"/>
+    <hyperlink ref="S9" r:id="rId_hyperlink_29" tooltip="mailto:mira.bruno@demo.com" display="mailto:mira.bruno@demo.com"/>
+    <hyperlink ref="T9" r:id="rId_hyperlink_30" tooltip="tel:+13100696080" display="tel:+13100696080"/>
+    <hyperlink ref="B10" r:id="rId_hyperlink_31" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db" display="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db"/>
+    <hyperlink ref="L10" r:id="rId_hyperlink_32" tooltip="https://www.northernstar.it" display="https://www.northernstar.it"/>
+    <hyperlink ref="S10" r:id="rId_hyperlink_33" tooltip="mailto:basiliorizzo@mail.com" display="mailto:basiliorizzo@mail.com"/>
+    <hyperlink ref="T10" r:id="rId_hyperlink_34" tooltip="tel:+13887302786" display="tel:+13887302786"/>
+    <hyperlink ref="B11" r:id="rId_hyperlink_35" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257" display="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257"/>
+    <hyperlink ref="L11" r:id="rId_hyperlink_36" tooltip="https://www.monsource.co.net" display="https://www.monsource.co.net"/>
+    <hyperlink ref="S11" r:id="rId_hyperlink_37" tooltip="mailto:alex.schmidt@example.com" display="mailto:alex.schmidt@example.com"/>
+    <hyperlink ref="T11" r:id="rId_hyperlink_38" tooltip="tel:+12841986001" display="tel:+12841986001"/>
+    <hyperlink ref="B12" r:id="rId_hyperlink_39" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8" display="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8"/>
+    <hyperlink ref="L12" r:id="rId_hyperlink_40" tooltip="https://www.fresh-start.de" display="https://www.fresh-start.de"/>
+    <hyperlink ref="S12" r:id="rId_hyperlink_41" tooltip="mailto:nadine.fried@demo.com" display="mailto:nadine.fried@demo.com"/>
+    <hyperlink ref="T12" r:id="rId_hyperlink_42" tooltip="tel:+16725124757" display="tel:+16725124757"/>
+    <hyperlink ref="B13" r:id="rId_hyperlink_43" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a" display="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a"/>
+    <hyperlink ref="L13" r:id="rId_hyperlink_44" tooltip="https://www.fisher-saving-lives.com" display="https://www.fisher-saving-lives.com"/>
+    <hyperlink ref="S13" r:id="rId_hyperlink_45" tooltip="mailto:gertruda.wysocka@example.com" display="mailto:gertruda.wysocka@example.com"/>
+    <hyperlink ref="T13" r:id="rId_hyperlink_46" tooltip="tel:+48947629804" display="tel:+48947629804"/>
+    <hyperlink ref="B14" r:id="rId_hyperlink_47" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14" display="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14"/>
+    <hyperlink ref="L14" r:id="rId_hyperlink_48" tooltip="https://www.gex.kat.pl" display="https://www.gex.kat.pl"/>
+    <hyperlink ref="S14" r:id="rId_hyperlink_49" tooltip="mailto:karolinaolszewska@spy.com" display="mailto:karolinaolszewska@spy.com"/>
+    <hyperlink ref="T14" r:id="rId_hyperlink_50" tooltip="tel:+16044315151" display="tel:+16044315151"/>
+    <hyperlink ref="B15" r:id="rId_hyperlink_51" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7" display="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7"/>
+    <hyperlink ref="L15" r:id="rId_hyperlink_52" tooltip="https://www.just4fun-demo.uk" display="https://www.just4fun-demo.uk"/>
+    <hyperlink ref="S15" r:id="rId_hyperlink_53" tooltip="mailto:taylor-whittaker@mail.com" display="mailto:taylor-whittaker@mail.com"/>
+    <hyperlink ref="T15" r:id="rId_hyperlink_54" tooltip="tel:+17033846866" display="tel:+17033846866"/>
+    <hyperlink ref="B16" r:id="rId_hyperlink_55" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037" display="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037"/>
+    <hyperlink ref="L16" r:id="rId_hyperlink_56" tooltip="https://www.integra-wealth.co.uk" display="https://www.integra-wealth.co.uk"/>
+    <hyperlink ref="S16" r:id="rId_hyperlink_57" tooltip="mailto:owen.moore@demo.com" display="mailto:owen.moore@demo.com"/>
+    <hyperlink ref="T16" r:id="rId_hyperlink_58" tooltip="tel:+17855860252" display="tel:+17855860252"/>
+    <hyperlink ref="B17" r:id="rId_hyperlink_59" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e" display="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e"/>
+    <hyperlink ref="L17" r:id="rId_hyperlink_60" tooltip="https://www.pizza-place.com" display="https://www.pizza-place.com"/>
+    <hyperlink ref="S17" r:id="rId_hyperlink_61" tooltip="mailto:mariettesimard@example.com" display="mailto:mariettesimard@example.com"/>
+    <hyperlink ref="T17" r:id="rId_hyperlink_62" tooltip="tel:+14375854286" display="tel:+14375854286"/>
+    <hyperlink ref="B18" r:id="rId_hyperlink_63" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213" display="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213"/>
+    <hyperlink ref="L18" r:id="rId_hyperlink_64" tooltip="https://www.ol-sports.com" display="https://www.ol-sports.com"/>
+    <hyperlink ref="S18" r:id="rId_hyperlink_65" tooltip="mailto:christabelrochon@example.com" display="mailto:christabelrochon@example.com"/>
+    <hyperlink ref="T18" r:id="rId_hyperlink_66" tooltip="tel:+12039543493" display="tel:+12039543493"/>
+    <hyperlink ref="B19" r:id="rId_hyperlink_67" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae" display="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae"/>
+    <hyperlink ref="L19" r:id="rId_hyperlink_68" tooltip="https://www.hughes-hatcher.us" display="https://www.hughes-hatcher.us"/>
+    <hyperlink ref="S19" r:id="rId_hyperlink_69" tooltip="mailto:oscar.sstephens@example.com" display="mailto:oscar.sstephens@example.com"/>
+    <hyperlink ref="T19" r:id="rId_hyperlink_70" tooltip="tel:+17758984313" display="tel:+17758984313"/>
+    <hyperlink ref="B20" r:id="rId_hyperlink_71" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e" display="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e"/>
+    <hyperlink ref="L20" r:id="rId_hyperlink_72" tooltip="https://www.westonsclothes.com" display="https://www.westonsclothes.com"/>
+    <hyperlink ref="S20" r:id="rId_hyperlink_73" tooltip="mailto:stephanie.asher@demo.com" display="mailto:stephanie.asher@demo.com"/>
+    <hyperlink ref="T20" r:id="rId_hyperlink_74" tooltip="tel:+18327783858" display="tel:+18327783858"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LeadsExport.xlsx
+++ b/Data/LeadsExport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -149,6 +149,68 @@
   </si>
   <si>
     <t>Stream Updated At</t>
+  </si>
+  <si>
+    <t>5f61b9b6dc8a12c55</t>
+  </si>
+  <si>
+    <t>Andrew Peterson</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Ophthalmologist</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>www.magik-grey.demo.us</t>
+  </si>
+  <si>
+    <t>2441 Duffy Street
+Los Angeles IN 46347
+United States</t>
+  </si>
+  <si>
+    <t>2441 Duffy Street</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>IN 46347</t>
+  </si>
+  <si>
+    <t>andrew.peterson@example.com</t>
+  </si>
+  <si>
+    <t>+12197664114</t>
+  </si>
+  <si>
+    <t>Jack Adams</t>
+  </si>
+  <si>
+    <t>Magik Grey</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
   <si>
     <t>5f61b8dce14ef6b45</t>
@@ -204,16 +266,10 @@
     <t>+13285250667</t>
   </si>
   <si>
-    <t>Jack Adams</t>
-  </si>
-  <si>
     <t>Builders Square</t>
   </si>
   <si>
     <t>Adam Powers</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>5f61b7e5df5371a6e</t>
@@ -334,9 +390,6 @@
     <t>Sales Manager</t>
   </si>
   <si>
-    <t>In Process</t>
-  </si>
-  <si>
     <t>Partner</t>
   </si>
   <si>
@@ -410,9 +463,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>IL 60126</t>
   </si>
   <si>
@@ -525,9 +575,6 @@
     <t>CarpoTown</t>
   </si>
   <si>
-    <t>AFP Supply</t>
-  </si>
-  <si>
     <t>5f608a5661c4a934b</t>
   </si>
   <si>
@@ -541,9 +588,6 @@
   </si>
   <si>
     <t>Clothes Designer</t>
-  </si>
-  <si>
-    <t>Call</t>
   </si>
   <si>
     <t>Creative</t>
@@ -707,9 +751,6 @@
     <t>Gertruda Wysocka</t>
   </si>
   <si>
-    <t>Dr.</t>
-  </si>
-  <si>
     <t>Gertruda</t>
   </si>
   <si>
@@ -717,9 +758,6 @@
   </si>
   <si>
     <t>Pediatrician</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
   </si>
   <si>
     <t>www.fisher-saving-lives.com</t>
@@ -977,9 +1015,6 @@
   </si>
   <si>
     <t>4628 Wescam Court</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
   </si>
   <si>
     <t>NV 89501</t>
@@ -1402,11 +1437,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L21"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1441,7 +1476,7 @@
     <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="20.281" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="17.71" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.71" bestFit="true" customWidth="true" style="0"/>
@@ -1650,10 +1685,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y2" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1665,7 +1700,7 @@
         <v>62</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
@@ -1679,7 +1714,7 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN2" s="4" t="b">
         <v>0</v>
@@ -1697,13 +1732,13 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>67</v>
@@ -1718,35 +1753,35 @@
         <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -1754,10 +1789,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y3" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1766,10 +1801,10 @@
         <v>61</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -1783,7 +1818,7 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN3" s="4" t="b">
         <v>0</v>
@@ -1801,56 +1836,56 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -1858,10 +1893,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y4" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1870,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>61</v>
@@ -1887,7 +1922,7 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN4" s="4" t="b">
         <v>0</v>
@@ -1905,56 +1940,56 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -1962,10 +1997,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y5" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -1974,10 +2009,10 @@
         <v>61</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -1991,7 +2026,7 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN5" s="4" t="b">
         <v>0</v>
@@ -2015,7 +2050,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>118</v>
@@ -2023,21 +2058,17 @@
       <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3000.0</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>123</v>
@@ -2070,10 +2101,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y6" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2085,11 +2116,9 @@
         <v>131</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -2101,7 +2130,7 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN6" s="4" t="b">
         <v>0</v>
@@ -2125,7 +2154,7 @@
         <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>135</v>
@@ -2133,42 +2162,46 @@
       <c r="E7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -2176,10 +2209,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y7" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2188,12 +2221,14 @@
         <v>61</v>
       </c>
       <c r="AB7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AC7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -2205,7 +2240,7 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN7" s="4" t="b">
         <v>0</v>
@@ -2229,7 +2264,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>151</v>
@@ -2244,48 +2279,46 @@
         <v>154</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="5">
-        <v>44090.26538194444583</v>
-      </c>
+      <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y8" s="5">
-        <v>46066.6428587962946</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>61</v>
@@ -2294,15 +2327,13 @@
         <v>61</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -2313,7 +2344,7 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN8" s="4" t="b">
         <v>0</v>
@@ -2337,7 +2368,7 @@
         <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>167</v>
@@ -2349,49 +2380,51 @@
         <v>169</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V9" s="4"/>
-      <c r="W9" s="5"/>
+      <c r="W9" s="5">
+        <v>44090.26538194444583</v>
+      </c>
       <c r="X9" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y9" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>61</v>
@@ -2400,10 +2433,10 @@
         <v>61</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
@@ -2417,7 +2450,7 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN9" s="4" t="b">
         <v>0</v>
@@ -2435,56 +2468,56 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -2492,10 +2525,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y10" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2504,10 +2537,10 @@
         <v>61</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -2521,7 +2554,7 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN10" s="4" t="b">
         <v>0</v>
@@ -2539,47 +2572,47 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>202</v>
@@ -2596,10 +2629,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y11" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2611,7 +2644,7 @@
         <v>205</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -2625,7 +2658,7 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN11" s="4" t="b">
         <v>0</v>
@@ -2648,7 +2681,9 @@
       <c r="B12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>208</v>
       </c>
@@ -2659,10 +2694,10 @@
         <v>210</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>211</v>
@@ -2681,7 +2716,7 @@
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>216</v>
@@ -2698,10 +2733,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y12" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2713,7 +2748,7 @@
         <v>219</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -2727,7 +2762,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN12" s="4" t="b">
         <v>0</v>
@@ -2750,42 +2785,40 @@
       <c r="B13" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="L13" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>230</v>
@@ -2800,14 +2833,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="4"/>
-      <c r="W13" s="5">
-        <v>44284.38123842592904</v>
-      </c>
+      <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y13" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2819,7 +2850,7 @@
         <v>233</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
@@ -2833,7 +2864,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN13" s="4" t="b">
         <v>0</v>
@@ -2857,7 +2888,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>236</v>
@@ -2869,58 +2900,60 @@
         <v>238</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="O14" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="R14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5">
+        <v>44284.38123842592904</v>
+      </c>
+      <c r="X14" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="U14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5">
-        <v>46066.58349537036702</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>46066.58349537036702</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>61</v>
@@ -2937,7 +2970,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN14" s="4" t="b">
         <v>0</v>
@@ -2955,56 +2988,56 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="L15" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="U15" s="4" t="b">
         <v>0</v>
@@ -3012,10 +3045,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y15" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3024,7 +3057,7 @@
         <v>61</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>61</v>
@@ -3041,10 +3074,10 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN15" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="4" t="b">
         <v>0</v>
@@ -3059,31 +3092,31 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>265</v>
@@ -3099,7 +3132,7 @@
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>269</v>
@@ -3116,10 +3149,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y16" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3145,10 +3178,10 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="4" t="b">
         <v>0</v>
@@ -3169,75 +3202,73 @@
         <v>274</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="N17" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="U17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="5">
-        <v>44089.37105324074219</v>
-      </c>
-      <c r="X17" s="5">
-        <v>46066.58349537036702</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>46066.58349537036702</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="AC17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
@@ -3251,7 +3282,7 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN17" s="4" t="b">
         <v>0</v>
@@ -3269,13 +3300,13 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>288</v>
@@ -3287,51 +3318,51 @@
         <v>290</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="O18" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="R18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="5">
-        <v>44435.29143518518686</v>
+        <v>44089.37105324074219</v>
       </c>
       <c r="X18" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y18" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3340,10 +3371,10 @@
         <v>61</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -3357,7 +3388,7 @@
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN18" s="4" t="b">
         <v>0</v>
@@ -3369,80 +3400,84 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="5"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="L19" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="O19" s="4" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="R19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="U19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="5">
+        <v>44435.29143518518686</v>
+      </c>
+      <c r="X19" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="U19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5">
-        <v>46066.58349537036702</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>46066.58349537036702</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>61</v>
@@ -3459,7 +3494,7 @@
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN19" s="4" t="b">
         <v>0</v>
@@ -3468,65 +3503,63 @@
         <v>0</v>
       </c>
       <c r="AP19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="4" t="b">
         <v>1</v>
-      </c>
-      <c r="AQ19" s="4" t="b">
-        <v>0</v>
       </c>
       <c r="AR19" s="5"/>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="L20" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="N20" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="O20" s="4" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -3534,10 +3567,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y20" s="5">
-        <v>46066.58349537036702</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3546,10 +3579,10 @@
         <v>61</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -3563,7 +3596,7 @@
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN20" s="4" t="b">
         <v>0</v>
@@ -3572,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="4" t="b">
         <v>0</v>
@@ -3580,126 +3613,234 @@
       <c r="AR20" s="5"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="U21" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="X21" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>46066.75016203703854</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
+      <c r="AI21" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
+      <c r="AM21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AR21" s="5"/>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AR1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId_hyperlink_1" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45" display="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45"/>
-    <hyperlink ref="L2" r:id="rId_hyperlink_2" tooltip="https://www.bilders-square.eu" display="https://www.bilders-square.eu"/>
-    <hyperlink ref="S2" r:id="rId_hyperlink_3" tooltip="mailto:antonio.ricci@example.com" display="mailto:antonio.ricci@example.com"/>
-    <hyperlink ref="T2" r:id="rId_hyperlink_4" tooltip="tel:+13285250667" display="tel:+13285250667"/>
-    <hyperlink ref="B3" r:id="rId_hyperlink_5" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e" display="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e"/>
-    <hyperlink ref="L3" r:id="rId_hyperlink_6" tooltip="https://www.scottsdale-source.kat.fr" display="https://www.scottsdale-source.kat.fr"/>
-    <hyperlink ref="S3" r:id="rId_hyperlink_7" tooltip="mailto:charles.patry@demo.com" display="mailto:charles.patry@demo.com"/>
-    <hyperlink ref="T3" r:id="rId_hyperlink_8" tooltip="tel:+12393953979" display="tel:+12393953979"/>
-    <hyperlink ref="B4" r:id="rId_hyperlink_9" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3" display="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3"/>
-    <hyperlink ref="L4" r:id="rId_hyperlink_10" tooltip="https://www.sunflower.de.info" display="https://www.sunflower.de.info"/>
-    <hyperlink ref="S4" r:id="rId_hyperlink_11" tooltip="mailto:ninathomson@example.com" display="mailto:ninathomson@example.com"/>
-    <hyperlink ref="T4" r:id="rId_hyperlink_12" tooltip="tel:+10794476017" display="tel:+10794476017"/>
-    <hyperlink ref="B5" r:id="rId_hyperlink_13" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2" display="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2"/>
-    <hyperlink ref="L5" r:id="rId_hyperlink_14" tooltip="https://www.waltersmarket.co.eu" display="https://www.waltersmarket.co.eu"/>
-    <hyperlink ref="S5" r:id="rId_hyperlink_15" tooltip="mailto:amadei.nowak@example.com" display="mailto:amadei.nowak@example.com"/>
-    <hyperlink ref="T5" r:id="rId_hyperlink_16" tooltip="tel:+18891707045" display="tel:+18891707045"/>
-    <hyperlink ref="B6" r:id="rId_hyperlink_17" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c" display="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c"/>
-    <hyperlink ref="L6" r:id="rId_hyperlink_18" tooltip="https://www.terra.dot.net" display="https://www.terra.dot.net"/>
-    <hyperlink ref="S6" r:id="rId_hyperlink_19" tooltip="mailto:george.barrios@demo.com" display="mailto:george.barrios@demo.com"/>
-    <hyperlink ref="T6" r:id="rId_hyperlink_20" tooltip="tel:+16330617624" display="tel:+16330617624"/>
-    <hyperlink ref="B7" r:id="rId_hyperlink_21" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530" display="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530"/>
-    <hyperlink ref="S7" r:id="rId_hyperlink_22" tooltip="mailto:timothy.harris@example.com" display="mailto:timothy.harris@example.com"/>
-    <hyperlink ref="T7" r:id="rId_hyperlink_23" tooltip="tel:+16609528448" display="tel:+16609528448"/>
-    <hyperlink ref="B8" r:id="rId_hyperlink_24" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa" display="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa"/>
-    <hyperlink ref="S8" r:id="rId_hyperlink_25" tooltip="mailto:felix.hirsch@demo.com" display="mailto:felix.hirsch@demo.com"/>
-    <hyperlink ref="T8" r:id="rId_hyperlink_26" tooltip="tel:+10402485076" display="tel:+10402485076"/>
-    <hyperlink ref="B9" r:id="rId_hyperlink_27" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b" display="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b"/>
-    <hyperlink ref="L9" r:id="rId_hyperlink_28" tooltip="https://www.BuyGaloshes.it" display="https://www.BuyGaloshes.it"/>
-    <hyperlink ref="S9" r:id="rId_hyperlink_29" tooltip="mailto:mira.bruno@demo.com" display="mailto:mira.bruno@demo.com"/>
-    <hyperlink ref="T9" r:id="rId_hyperlink_30" tooltip="tel:+13100696080" display="tel:+13100696080"/>
-    <hyperlink ref="B10" r:id="rId_hyperlink_31" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db" display="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db"/>
-    <hyperlink ref="L10" r:id="rId_hyperlink_32" tooltip="https://www.northernstar.it" display="https://www.northernstar.it"/>
-    <hyperlink ref="S10" r:id="rId_hyperlink_33" tooltip="mailto:basiliorizzo@mail.com" display="mailto:basiliorizzo@mail.com"/>
-    <hyperlink ref="T10" r:id="rId_hyperlink_34" tooltip="tel:+13887302786" display="tel:+13887302786"/>
-    <hyperlink ref="B11" r:id="rId_hyperlink_35" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257" display="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257"/>
-    <hyperlink ref="L11" r:id="rId_hyperlink_36" tooltip="https://www.monsource.co.net" display="https://www.monsource.co.net"/>
-    <hyperlink ref="S11" r:id="rId_hyperlink_37" tooltip="mailto:alex.schmidt@example.com" display="mailto:alex.schmidt@example.com"/>
-    <hyperlink ref="T11" r:id="rId_hyperlink_38" tooltip="tel:+12841986001" display="tel:+12841986001"/>
-    <hyperlink ref="B12" r:id="rId_hyperlink_39" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8" display="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8"/>
-    <hyperlink ref="L12" r:id="rId_hyperlink_40" tooltip="https://www.fresh-start.de" display="https://www.fresh-start.de"/>
-    <hyperlink ref="S12" r:id="rId_hyperlink_41" tooltip="mailto:nadine.fried@demo.com" display="mailto:nadine.fried@demo.com"/>
-    <hyperlink ref="T12" r:id="rId_hyperlink_42" tooltip="tel:+16725124757" display="tel:+16725124757"/>
-    <hyperlink ref="B13" r:id="rId_hyperlink_43" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a" display="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a"/>
-    <hyperlink ref="L13" r:id="rId_hyperlink_44" tooltip="https://www.fisher-saving-lives.com" display="https://www.fisher-saving-lives.com"/>
-    <hyperlink ref="S13" r:id="rId_hyperlink_45" tooltip="mailto:gertruda.wysocka@example.com" display="mailto:gertruda.wysocka@example.com"/>
-    <hyperlink ref="T13" r:id="rId_hyperlink_46" tooltip="tel:+48947629804" display="tel:+48947629804"/>
-    <hyperlink ref="B14" r:id="rId_hyperlink_47" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14" display="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14"/>
-    <hyperlink ref="L14" r:id="rId_hyperlink_48" tooltip="https://www.gex.kat.pl" display="https://www.gex.kat.pl"/>
-    <hyperlink ref="S14" r:id="rId_hyperlink_49" tooltip="mailto:karolinaolszewska@spy.com" display="mailto:karolinaolszewska@spy.com"/>
-    <hyperlink ref="T14" r:id="rId_hyperlink_50" tooltip="tel:+16044315151" display="tel:+16044315151"/>
-    <hyperlink ref="B15" r:id="rId_hyperlink_51" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7" display="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7"/>
-    <hyperlink ref="L15" r:id="rId_hyperlink_52" tooltip="https://www.just4fun-demo.uk" display="https://www.just4fun-demo.uk"/>
-    <hyperlink ref="S15" r:id="rId_hyperlink_53" tooltip="mailto:taylor-whittaker@mail.com" display="mailto:taylor-whittaker@mail.com"/>
-    <hyperlink ref="T15" r:id="rId_hyperlink_54" tooltip="tel:+17033846866" display="tel:+17033846866"/>
-    <hyperlink ref="B16" r:id="rId_hyperlink_55" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037" display="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037"/>
-    <hyperlink ref="L16" r:id="rId_hyperlink_56" tooltip="https://www.integra-wealth.co.uk" display="https://www.integra-wealth.co.uk"/>
-    <hyperlink ref="S16" r:id="rId_hyperlink_57" tooltip="mailto:owen.moore@demo.com" display="mailto:owen.moore@demo.com"/>
-    <hyperlink ref="T16" r:id="rId_hyperlink_58" tooltip="tel:+17855860252" display="tel:+17855860252"/>
-    <hyperlink ref="B17" r:id="rId_hyperlink_59" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e" display="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e"/>
-    <hyperlink ref="L17" r:id="rId_hyperlink_60" tooltip="https://www.pizza-place.com" display="https://www.pizza-place.com"/>
-    <hyperlink ref="S17" r:id="rId_hyperlink_61" tooltip="mailto:mariettesimard@example.com" display="mailto:mariettesimard@example.com"/>
-    <hyperlink ref="T17" r:id="rId_hyperlink_62" tooltip="tel:+14375854286" display="tel:+14375854286"/>
-    <hyperlink ref="B18" r:id="rId_hyperlink_63" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213" display="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213"/>
-    <hyperlink ref="L18" r:id="rId_hyperlink_64" tooltip="https://www.ol-sports.com" display="https://www.ol-sports.com"/>
-    <hyperlink ref="S18" r:id="rId_hyperlink_65" tooltip="mailto:christabelrochon@example.com" display="mailto:christabelrochon@example.com"/>
-    <hyperlink ref="T18" r:id="rId_hyperlink_66" tooltip="tel:+12039543493" display="tel:+12039543493"/>
-    <hyperlink ref="B19" r:id="rId_hyperlink_67" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae" display="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae"/>
-    <hyperlink ref="L19" r:id="rId_hyperlink_68" tooltip="https://www.hughes-hatcher.us" display="https://www.hughes-hatcher.us"/>
-    <hyperlink ref="S19" r:id="rId_hyperlink_69" tooltip="mailto:oscar.sstephens@example.com" display="mailto:oscar.sstephens@example.com"/>
-    <hyperlink ref="T19" r:id="rId_hyperlink_70" tooltip="tel:+17758984313" display="tel:+17758984313"/>
-    <hyperlink ref="B20" r:id="rId_hyperlink_71" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e" display="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e"/>
-    <hyperlink ref="L20" r:id="rId_hyperlink_72" tooltip="https://www.westonsclothes.com" display="https://www.westonsclothes.com"/>
-    <hyperlink ref="S20" r:id="rId_hyperlink_73" tooltip="mailto:stephanie.asher@demo.com" display="mailto:stephanie.asher@demo.com"/>
-    <hyperlink ref="T20" r:id="rId_hyperlink_74" tooltip="tel:+18327783858" display="tel:+18327783858"/>
+    <hyperlink ref="B2" r:id="rId_hyperlink_1" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b9b6dc8a12c55" display="https://demo.us.espocrm.com/#Lead/view/5f61b9b6dc8a12c55"/>
+    <hyperlink ref="L2" r:id="rId_hyperlink_2" tooltip="https://www.magik-grey.demo.us" display="https://www.magik-grey.demo.us"/>
+    <hyperlink ref="S2" r:id="rId_hyperlink_3" tooltip="mailto:andrew.peterson@example.com" display="mailto:andrew.peterson@example.com"/>
+    <hyperlink ref="T2" r:id="rId_hyperlink_4" tooltip="tel:+12197664114" display="tel:+12197664114"/>
+    <hyperlink ref="B3" r:id="rId_hyperlink_5" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45" display="https://demo.us.espocrm.com/#Lead/view/5f61b8dce14ef6b45"/>
+    <hyperlink ref="L3" r:id="rId_hyperlink_6" tooltip="https://www.bilders-square.eu" display="https://www.bilders-square.eu"/>
+    <hyperlink ref="S3" r:id="rId_hyperlink_7" tooltip="mailto:antonio.ricci@example.com" display="mailto:antonio.ricci@example.com"/>
+    <hyperlink ref="T3" r:id="rId_hyperlink_8" tooltip="tel:+13285250667" display="tel:+13285250667"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_9" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e" display="https://demo.us.espocrm.com/#Lead/view/5f61b7e5df5371a6e"/>
+    <hyperlink ref="L4" r:id="rId_hyperlink_10" tooltip="https://www.scottsdale-source.kat.fr" display="https://www.scottsdale-source.kat.fr"/>
+    <hyperlink ref="S4" r:id="rId_hyperlink_11" tooltip="mailto:charles.patry@demo.com" display="mailto:charles.patry@demo.com"/>
+    <hyperlink ref="T4" r:id="rId_hyperlink_12" tooltip="tel:+12393953979" display="tel:+12393953979"/>
+    <hyperlink ref="B5" r:id="rId_hyperlink_13" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3" display="https://demo.us.espocrm.com/#Lead/view/5f61b3790fe4d0aa3"/>
+    <hyperlink ref="L5" r:id="rId_hyperlink_14" tooltip="https://www.sunflower.de.info" display="https://www.sunflower.de.info"/>
+    <hyperlink ref="S5" r:id="rId_hyperlink_15" tooltip="mailto:ninathomson@example.com" display="mailto:ninathomson@example.com"/>
+    <hyperlink ref="T5" r:id="rId_hyperlink_16" tooltip="tel:+10794476017" display="tel:+10794476017"/>
+    <hyperlink ref="B6" r:id="rId_hyperlink_17" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2" display="https://demo.us.espocrm.com/#Lead/view/5f61b2b1573319cc2"/>
+    <hyperlink ref="L6" r:id="rId_hyperlink_18" tooltip="https://www.waltersmarket.co.eu" display="https://www.waltersmarket.co.eu"/>
+    <hyperlink ref="S6" r:id="rId_hyperlink_19" tooltip="mailto:amadei.nowak@example.com" display="mailto:amadei.nowak@example.com"/>
+    <hyperlink ref="T6" r:id="rId_hyperlink_20" tooltip="tel:+18891707045" display="tel:+18891707045"/>
+    <hyperlink ref="B7" r:id="rId_hyperlink_21" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c" display="https://demo.us.espocrm.com/#Lead/view/5f61b1f5bb402932c"/>
+    <hyperlink ref="L7" r:id="rId_hyperlink_22" tooltip="https://www.terra.dot.net" display="https://www.terra.dot.net"/>
+    <hyperlink ref="S7" r:id="rId_hyperlink_23" tooltip="mailto:george.barrios@demo.com" display="mailto:george.barrios@demo.com"/>
+    <hyperlink ref="T7" r:id="rId_hyperlink_24" tooltip="tel:+16330617624" display="tel:+16330617624"/>
+    <hyperlink ref="B8" r:id="rId_hyperlink_25" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530" display="https://demo.us.espocrm.com/#Lead/view/5f61b0072cc6cf530"/>
+    <hyperlink ref="S8" r:id="rId_hyperlink_26" tooltip="mailto:timothy.harris@example.com" display="mailto:timothy.harris@example.com"/>
+    <hyperlink ref="T8" r:id="rId_hyperlink_27" tooltip="tel:+16609528448" display="tel:+16609528448"/>
+    <hyperlink ref="B9" r:id="rId_hyperlink_28" tooltip="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa" display="https://demo.us.espocrm.com/#Lead/view/5f61af0395c3beeaa"/>
+    <hyperlink ref="S9" r:id="rId_hyperlink_29" tooltip="mailto:felix.hirsch@demo.com" display="mailto:felix.hirsch@demo.com"/>
+    <hyperlink ref="T9" r:id="rId_hyperlink_30" tooltip="tel:+10402485076" display="tel:+10402485076"/>
+    <hyperlink ref="B10" r:id="rId_hyperlink_31" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b" display="https://demo.us.espocrm.com/#Lead/view/5f608a5661c4a934b"/>
+    <hyperlink ref="L10" r:id="rId_hyperlink_32" tooltip="https://www.BuyGaloshes.it" display="https://www.BuyGaloshes.it"/>
+    <hyperlink ref="S10" r:id="rId_hyperlink_33" tooltip="mailto:mira.bruno@demo.com" display="mailto:mira.bruno@demo.com"/>
+    <hyperlink ref="T10" r:id="rId_hyperlink_34" tooltip="tel:+13100696080" display="tel:+13100696080"/>
+    <hyperlink ref="B11" r:id="rId_hyperlink_35" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db" display="https://demo.us.espocrm.com/#Lead/view/5f60895b63f9eb1db"/>
+    <hyperlink ref="L11" r:id="rId_hyperlink_36" tooltip="https://www.northernstar.it" display="https://www.northernstar.it"/>
+    <hyperlink ref="S11" r:id="rId_hyperlink_37" tooltip="mailto:basiliorizzo@mail.com" display="mailto:basiliorizzo@mail.com"/>
+    <hyperlink ref="T11" r:id="rId_hyperlink_38" tooltip="tel:+13887302786" display="tel:+13887302786"/>
+    <hyperlink ref="B12" r:id="rId_hyperlink_39" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257" display="https://demo.us.espocrm.com/#Lead/view/5f6088806ea289257"/>
+    <hyperlink ref="L12" r:id="rId_hyperlink_40" tooltip="https://www.monsource.co.net" display="https://www.monsource.co.net"/>
+    <hyperlink ref="S12" r:id="rId_hyperlink_41" tooltip="mailto:alex.schmidt@example.com" display="mailto:alex.schmidt@example.com"/>
+    <hyperlink ref="T12" r:id="rId_hyperlink_42" tooltip="tel:+12841986001" display="tel:+12841986001"/>
+    <hyperlink ref="B13" r:id="rId_hyperlink_43" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8" display="https://demo.us.espocrm.com/#Lead/view/5f6087dca7ec3fcb8"/>
+    <hyperlink ref="L13" r:id="rId_hyperlink_44" tooltip="https://www.fresh-start.de" display="https://www.fresh-start.de"/>
+    <hyperlink ref="S13" r:id="rId_hyperlink_45" tooltip="mailto:nadine.fried@demo.com" display="mailto:nadine.fried@demo.com"/>
+    <hyperlink ref="T13" r:id="rId_hyperlink_46" tooltip="tel:+16725124757" display="tel:+16725124757"/>
+    <hyperlink ref="B14" r:id="rId_hyperlink_47" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a" display="https://demo.us.espocrm.com/#Lead/view/5f60871872646062a"/>
+    <hyperlink ref="L14" r:id="rId_hyperlink_48" tooltip="https://www.fisher-saving-lives.com" display="https://www.fisher-saving-lives.com"/>
+    <hyperlink ref="S14" r:id="rId_hyperlink_49" tooltip="mailto:gertruda.wysocka@example.com" display="mailto:gertruda.wysocka@example.com"/>
+    <hyperlink ref="T14" r:id="rId_hyperlink_50" tooltip="tel:+48947629804" display="tel:+48947629804"/>
+    <hyperlink ref="B15" r:id="rId_hyperlink_51" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14" display="https://demo.us.espocrm.com/#Lead/view/5f60864cac9e5eb14"/>
+    <hyperlink ref="L15" r:id="rId_hyperlink_52" tooltip="https://www.gex.kat.pl" display="https://www.gex.kat.pl"/>
+    <hyperlink ref="S15" r:id="rId_hyperlink_53" tooltip="mailto:karolinaolszewska@spy.com" display="mailto:karolinaolszewska@spy.com"/>
+    <hyperlink ref="T15" r:id="rId_hyperlink_54" tooltip="tel:+16044315151" display="tel:+16044315151"/>
+    <hyperlink ref="B16" r:id="rId_hyperlink_55" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7" display="https://demo.us.espocrm.com/#Lead/view/5f608325b54a2bff7"/>
+    <hyperlink ref="L16" r:id="rId_hyperlink_56" tooltip="https://www.just4fun-demo.uk" display="https://www.just4fun-demo.uk"/>
+    <hyperlink ref="S16" r:id="rId_hyperlink_57" tooltip="mailto:taylor-whittaker@mail.com" display="mailto:taylor-whittaker@mail.com"/>
+    <hyperlink ref="T16" r:id="rId_hyperlink_58" tooltip="tel:+17033846866" display="tel:+17033846866"/>
+    <hyperlink ref="B17" r:id="rId_hyperlink_59" tooltip="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037" display="https://demo.us.espocrm.com/#Lead/view/5f6082758e351b037"/>
+    <hyperlink ref="L17" r:id="rId_hyperlink_60" tooltip="https://www.integra-wealth.co.uk" display="https://www.integra-wealth.co.uk"/>
+    <hyperlink ref="S17" r:id="rId_hyperlink_61" tooltip="mailto:owen.moore@demo.com" display="mailto:owen.moore@demo.com"/>
+    <hyperlink ref="T17" r:id="rId_hyperlink_62" tooltip="tel:+17855860252" display="tel:+17855860252"/>
+    <hyperlink ref="B18" r:id="rId_hyperlink_63" tooltip="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e" display="https://demo.us.espocrm.com/#Lead/view/5f60813bcb27cac9e"/>
+    <hyperlink ref="L18" r:id="rId_hyperlink_64" tooltip="https://www.pizza-place.com" display="https://www.pizza-place.com"/>
+    <hyperlink ref="S18" r:id="rId_hyperlink_65" tooltip="mailto:mariettesimard@example.com" display="mailto:mariettesimard@example.com"/>
+    <hyperlink ref="T18" r:id="rId_hyperlink_66" tooltip="tel:+14375854286" display="tel:+14375854286"/>
+    <hyperlink ref="B19" r:id="rId_hyperlink_67" tooltip="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213" display="https://demo.us.espocrm.com/#Lead/view/5f608050dcdb8b213"/>
+    <hyperlink ref="L19" r:id="rId_hyperlink_68" tooltip="https://www.ol-sports.com" display="https://www.ol-sports.com"/>
+    <hyperlink ref="S19" r:id="rId_hyperlink_69" tooltip="mailto:christabelrochon@example.com" display="mailto:christabelrochon@example.com"/>
+    <hyperlink ref="T19" r:id="rId_hyperlink_70" tooltip="tel:+12039543493" display="tel:+12039543493"/>
+    <hyperlink ref="B20" r:id="rId_hyperlink_71" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae" display="https://demo.us.espocrm.com/#Lead/view/5f607f5374fca19ae"/>
+    <hyperlink ref="L20" r:id="rId_hyperlink_72" tooltip="https://www.hughes-hatcher.us" display="https://www.hughes-hatcher.us"/>
+    <hyperlink ref="S20" r:id="rId_hyperlink_73" tooltip="mailto:oscar.sstephens@example.com" display="mailto:oscar.sstephens@example.com"/>
+    <hyperlink ref="T20" r:id="rId_hyperlink_74" tooltip="tel:+17758984313" display="tel:+17758984313"/>
+    <hyperlink ref="B21" r:id="rId_hyperlink_75" tooltip="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e" display="https://demo.us.espocrm.com/#Lead/view/5f607d6ba73e77b2e"/>
+    <hyperlink ref="L21" r:id="rId_hyperlink_76" tooltip="https://www.westonsclothes.com" display="https://www.westonsclothes.com"/>
+    <hyperlink ref="S21" r:id="rId_hyperlink_77" tooltip="mailto:stephanie.asher@demo.com" display="mailto:stephanie.asher@demo.com"/>
+    <hyperlink ref="T21" r:id="rId_hyperlink_78" tooltip="tel:+18327783858" display="tel:+18327783858"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LeadsExport.xlsx
+++ b/Data/LeadsExport.xlsx
@@ -1685,10 +1685,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y2" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1789,10 +1789,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y3" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1893,10 +1893,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y4" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1997,10 +1997,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y5" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -2101,10 +2101,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y6" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2209,10 +2209,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y7" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2315,10 +2315,10 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y8" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>61</v>
@@ -2421,10 +2421,10 @@
         <v>44090.26538194444583</v>
       </c>
       <c r="X9" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y9" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>61</v>
@@ -2525,10 +2525,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y10" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2629,10 +2629,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y11" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2733,10 +2733,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y12" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2835,10 +2835,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y13" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2941,10 +2941,10 @@
         <v>44284.38123842592904</v>
       </c>
       <c r="X14" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y14" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>61</v>
@@ -3045,10 +3045,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y15" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3149,10 +3149,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y16" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3253,10 +3253,10 @@
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y17" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>61</v>
@@ -3359,10 +3359,10 @@
         <v>44089.37105324074219</v>
       </c>
       <c r="X18" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y18" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3465,10 +3465,10 @@
         <v>44435.29143518518686</v>
       </c>
       <c r="X19" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y19" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>61</v>
@@ -3567,10 +3567,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y20" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3671,10 +3671,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y21" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>61</v>
